--- a/06_Training/BCD1_0117_BCD Carpentry Project_Training Records.xlsx
+++ b/06_Training/BCD1_0117_BCD Carpentry Project_Training Records.xlsx
@@ -72,11 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.Installation of Visual Paradiam
-2.How to create conceptual diagram, logic diagram and physical diagram using Visual Paramdiam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10:00 - 12:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +134,11 @@
   <si>
     <t>1.How to use the HRMS application.
 2.Nicole gave the project team some feedbacks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Installation of Visual Paradigm
+2.How to create conceptual diagram, logic diagram and physical diagram using Visual Paramdigm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="[$-1409]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-1409]d\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -231,17 +231,17 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,7 +563,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -654,19 +654,19 @@
         <v>42858</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -677,19 +677,19 @@
         <v>42859</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +704,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -747,19 +747,19 @@
         <v>42871</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -773,16 +773,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
